--- a/test/DCEmodels/test_results_ETM.xlsx
+++ b/test/DCEmodels/test_results_ETM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="30">
   <si>
     <t>testname</t>
   </si>
@@ -461,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2573,6 +2573,1878 @@
         <v>0.05072885253233239</v>
       </c>
     </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0.55</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0.001418530201174281</v>
+      </c>
+      <c r="G82">
+        <v>0.5491445685287786</v>
+      </c>
+      <c r="H82">
+        <v>0.004359103984845391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D83">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E83">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F83">
+        <v>0.1728028993966088</v>
+      </c>
+      <c r="G83">
+        <v>0.02177590407794507</v>
+      </c>
+      <c r="H83">
+        <v>0.06376987170374965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D84">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E84">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F84">
+        <v>0.1468793627200324</v>
+      </c>
+      <c r="G84">
+        <v>0.02403062148390341</v>
+      </c>
+      <c r="H84">
+        <v>0.07610953870870651</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D85">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E85">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F85">
+        <v>0.2026488999803101</v>
+      </c>
+      <c r="G85">
+        <v>0.00497267264278147</v>
+      </c>
+      <c r="H85">
+        <v>0.0511270287634164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0.55</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0.001406651053118055</v>
+      </c>
+      <c r="G86">
+        <v>0.549154426142314</v>
+      </c>
+      <c r="H86">
+        <v>0.004269260068182407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D87">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E87">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F87">
+        <v>0.1684639478807755</v>
+      </c>
+      <c r="G87">
+        <v>0.02171832370819468</v>
+      </c>
+      <c r="H87">
+        <v>0.06477846663066072</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D88">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E88">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F88">
+        <v>0.1477457345389953</v>
+      </c>
+      <c r="G88">
+        <v>0.02412566540398124</v>
+      </c>
+      <c r="H88">
+        <v>0.07534588938730437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D89">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E89">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F89">
+        <v>0.199288830161437</v>
+      </c>
+      <c r="G89">
+        <v>0.004054247661456485</v>
+      </c>
+      <c r="H89">
+        <v>0.05233349728143885</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0.55</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.001396519020190193</v>
+      </c>
+      <c r="G90">
+        <v>0.5491584021582929</v>
+      </c>
+      <c r="H90">
+        <v>0.004276758291971783</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D91">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E91">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F91">
+        <v>0.1724116768513969</v>
+      </c>
+      <c r="G91">
+        <v>0.02230320083401669</v>
+      </c>
+      <c r="H91">
+        <v>0.06326521980811919</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D92">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E92">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F92">
+        <v>0.1454093888039202</v>
+      </c>
+      <c r="G92">
+        <v>0.02420015418117676</v>
+      </c>
+      <c r="H92">
+        <v>0.07625227834629489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D93">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E93">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F93">
+        <v>0.2030350951557176</v>
+      </c>
+      <c r="G93">
+        <v>0.005201107232786146</v>
+      </c>
+      <c r="H93">
+        <v>0.05136656109878772</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0.55</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0.001426166739505325</v>
+      </c>
+      <c r="G94">
+        <v>0.5491388700922698</v>
+      </c>
+      <c r="H94">
+        <v>0.004400959443163699</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D95">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E95">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F95">
+        <v>0.1722279495620919</v>
+      </c>
+      <c r="G95">
+        <v>0.02192546308159541</v>
+      </c>
+      <c r="H95">
+        <v>0.06381248972794865</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D96">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E96">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F96">
+        <v>0.146702445011076</v>
+      </c>
+      <c r="G96">
+        <v>0.02396983806314735</v>
+      </c>
+      <c r="H96">
+        <v>0.07608842499176466</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D97">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E97">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F97">
+        <v>0.2018901216914692</v>
+      </c>
+      <c r="G97">
+        <v>0.004895345647194301</v>
+      </c>
+      <c r="H97">
+        <v>0.05105245064179856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0.55</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>2.559133409565409E-09</v>
+      </c>
+      <c r="G98">
+        <v>0.5499999999320327</v>
+      </c>
+      <c r="H98">
+        <v>9.750301962577166E-11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D99">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E99">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F99">
+        <v>0.1750605373926891</v>
+      </c>
+      <c r="G99">
+        <v>0.02123619987605812</v>
+      </c>
+      <c r="H99">
+        <v>0.06348520222998508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D100">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E100">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F100">
+        <v>0.148621502979185</v>
+      </c>
+      <c r="G100">
+        <v>0.02345408019117296</v>
+      </c>
+      <c r="H100">
+        <v>0.07547283888771519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D101">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E101">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F101">
+        <v>0.20687705734887</v>
+      </c>
+      <c r="G101">
+        <v>0.004595068846620807</v>
+      </c>
+      <c r="H101">
+        <v>0.05078776141022786</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0.55</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1.322763127443576E-08</v>
+      </c>
+      <c r="G102">
+        <v>0.5499999975678415</v>
+      </c>
+      <c r="H102">
+        <v>1.829768775982769E-09</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D103">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E103">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F103">
+        <v>0.1706957638591634</v>
+      </c>
+      <c r="G103">
+        <v>0.02124787225867672</v>
+      </c>
+      <c r="H103">
+        <v>0.06433442019070561</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D104">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E104">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F104">
+        <v>0.1495243200874164</v>
+      </c>
+      <c r="G104">
+        <v>0.02357118068234389</v>
+      </c>
+      <c r="H104">
+        <v>0.07466850573926039</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D105">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E105">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F105">
+        <v>0.2034857121980814</v>
+      </c>
+      <c r="G105">
+        <v>0.00363023963497607</v>
+      </c>
+      <c r="H105">
+        <v>0.05195195051057554</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0.55</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1.322356894016248E-08</v>
+      </c>
+      <c r="G106">
+        <v>0.5499999975701754</v>
+      </c>
+      <c r="H106">
+        <v>1.829974356018053E-09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D107">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E107">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F107">
+        <v>0.1746464034881023</v>
+      </c>
+      <c r="G107">
+        <v>0.02176698371636538</v>
+      </c>
+      <c r="H107">
+        <v>0.06300607577862226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D108">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E108">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F108">
+        <v>0.1471289544219697</v>
+      </c>
+      <c r="G108">
+        <v>0.02362144391352165</v>
+      </c>
+      <c r="H108">
+        <v>0.07562457959805949</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D109">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E109">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F109">
+        <v>0.2072232024157327</v>
+      </c>
+      <c r="G109">
+        <v>0.004775976122016936</v>
+      </c>
+      <c r="H109">
+        <v>0.05106145321046984</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0.55</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2.55889940808962E-09</v>
+      </c>
+      <c r="G110">
+        <v>0.549999999932048</v>
+      </c>
+      <c r="H110">
+        <v>9.750183335067484E-11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D111">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E111">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F111">
+        <v>0.1744698641961404</v>
+      </c>
+      <c r="G111">
+        <v>0.02137857566502945</v>
+      </c>
+      <c r="H111">
+        <v>0.06353653762298929</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D112">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E112">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F112">
+        <v>0.1484451527096812</v>
+      </c>
+      <c r="G112">
+        <v>0.02337086672527753</v>
+      </c>
+      <c r="H112">
+        <v>0.07548920106649365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D113">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E113">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F113">
+        <v>0.2060980006317943</v>
+      </c>
+      <c r="G113">
+        <v>0.004489717671090965</v>
+      </c>
+      <c r="H113">
+        <v>0.05072817709419733</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0.55</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0.007754462401016552</v>
+      </c>
+      <c r="G114">
+        <v>0.5499999999998207</v>
+      </c>
+      <c r="H114">
+        <v>9.553821525692754E-14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D115">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E115">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F115">
+        <v>0.1750593303577198</v>
+      </c>
+      <c r="G115">
+        <v>0.02176101549330864</v>
+      </c>
+      <c r="H115">
+        <v>0.06348978580662541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D116">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E116">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F116">
+        <v>0.1486256968866936</v>
+      </c>
+      <c r="G116">
+        <v>0.02407234463114006</v>
+      </c>
+      <c r="H116">
+        <v>0.07548714858285105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D117">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E117">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F117">
+        <v>0.2068758831253026</v>
+      </c>
+      <c r="G117">
+        <v>0.004989254532613258</v>
+      </c>
+      <c r="H117">
+        <v>0.05080143252787264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0.55</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0.007755742066009138</v>
+      </c>
+      <c r="G118">
+        <v>0.5499999999998199</v>
+      </c>
+      <c r="H118">
+        <v>9.586602893876811E-14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D119">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E119">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F119">
+        <v>0.1706641011116178</v>
+      </c>
+      <c r="G119">
+        <v>0.02158754134892141</v>
+      </c>
+      <c r="H119">
+        <v>0.06455287815014785</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D120">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E120">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F120">
+        <v>0.1496676143600557</v>
+      </c>
+      <c r="G120">
+        <v>0.02380103196244875</v>
+      </c>
+      <c r="H120">
+        <v>0.07519459753097711</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D121">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E121">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F121">
+        <v>0.2035381726781395</v>
+      </c>
+      <c r="G121">
+        <v>0.003842997115536706</v>
+      </c>
+      <c r="H121">
+        <v>0.05204928026125515</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0.55</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0.007754496145253766</v>
+      </c>
+      <c r="G122">
+        <v>0.5499999999998203</v>
+      </c>
+      <c r="H122">
+        <v>9.577746723029693E-14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D123">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E123">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F123">
+        <v>0.1746465166323563</v>
+      </c>
+      <c r="G123">
+        <v>0.02229239914785764</v>
+      </c>
+      <c r="H123">
+        <v>0.06300711986984717</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D124">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E124">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F124">
+        <v>0.1471291793166681</v>
+      </c>
+      <c r="G124">
+        <v>0.02425203352301594</v>
+      </c>
+      <c r="H124">
+        <v>0.07562561751207202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D125">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E125">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F125">
+        <v>0.2072228586416723</v>
+      </c>
+      <c r="G125">
+        <v>0.005201951282003966</v>
+      </c>
+      <c r="H125">
+        <v>0.05106232345493049</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0.55</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0.00775378706314227</v>
+      </c>
+      <c r="G126">
+        <v>0.5499999999998212</v>
+      </c>
+      <c r="H126">
+        <v>9.530867177336752E-14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D127">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E127">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F127">
+        <v>0.1744698630388586</v>
+      </c>
+      <c r="G127">
+        <v>0.02190804095005706</v>
+      </c>
+      <c r="H127">
+        <v>0.06353652024767883</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D128">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E128">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F128">
+        <v>0.1484451490254206</v>
+      </c>
+      <c r="G128">
+        <v>0.02399993763039887</v>
+      </c>
+      <c r="H128">
+        <v>0.07548918354399009</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D129">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E129">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F129">
+        <v>0.2060980077989928</v>
+      </c>
+      <c r="G129">
+        <v>0.004912445923570554</v>
+      </c>
+      <c r="H129">
+        <v>0.05072816240609281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0.55</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>2.763321704187309E-09</v>
+      </c>
+      <c r="G130">
+        <v>0.5499999999039725</v>
+      </c>
+      <c r="H130">
+        <v>1.145624500699678E-10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D131">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E131">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F131">
+        <v>0.1750537482095352</v>
+      </c>
+      <c r="G131">
+        <v>0.02176182619691179</v>
+      </c>
+      <c r="H131">
+        <v>0.06349087695537153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D132">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E132">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F132">
+        <v>0.1486216237775446</v>
+      </c>
+      <c r="G132">
+        <v>0.02407382825973012</v>
+      </c>
+      <c r="H132">
+        <v>0.07548833470811599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D133">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E133">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F133">
+        <v>0.2068694670406379</v>
+      </c>
+      <c r="G133">
+        <v>0.004989682257731006</v>
+      </c>
+      <c r="H133">
+        <v>0.05080204429748073</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0.55</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>2.771405808697009E-09</v>
+      </c>
+      <c r="G134">
+        <v>0.5499999999031566</v>
+      </c>
+      <c r="H134">
+        <v>1.153494866019139E-10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D135">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E135">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F135">
+        <v>0.1706580495973535</v>
+      </c>
+      <c r="G135">
+        <v>0.0215880372249285</v>
+      </c>
+      <c r="H135">
+        <v>0.06455364299364372</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D136">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E136">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F136">
+        <v>0.1496632590222408</v>
+      </c>
+      <c r="G136">
+        <v>0.02380222929420951</v>
+      </c>
+      <c r="H136">
+        <v>0.07519505111170163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D137">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E137">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F137">
+        <v>0.2035305689443322</v>
+      </c>
+      <c r="G137">
+        <v>0.003843106056847202</v>
+      </c>
+      <c r="H137">
+        <v>0.05204957657848886</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0.55</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>2.765674316547831E-09</v>
+      </c>
+      <c r="G138">
+        <v>0.5499999999037588</v>
+      </c>
+      <c r="H138">
+        <v>1.147699005231733E-10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D139">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E139">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F139">
+        <v>0.1746416646489021</v>
+      </c>
+      <c r="G139">
+        <v>0.02229311447792631</v>
+      </c>
+      <c r="H139">
+        <v>0.06300726689537807</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D140">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E140">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F140">
+        <v>0.147125105262615</v>
+      </c>
+      <c r="G140">
+        <v>0.02425338099799772</v>
+      </c>
+      <c r="H140">
+        <v>0.07562615299252885</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D141">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E141">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F141">
+        <v>0.2072205353533079</v>
+      </c>
+      <c r="G141">
+        <v>0.005202401153281258</v>
+      </c>
+      <c r="H141">
+        <v>0.05106174137943077</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0.55</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>2.762706701064273E-09</v>
+      </c>
+      <c r="G142">
+        <v>0.5499999999040222</v>
+      </c>
+      <c r="H142">
+        <v>1.145291223759778E-10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D143">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E143">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F143">
+        <v>0.1744642174405116</v>
+      </c>
+      <c r="G143">
+        <v>0.02190884615445359</v>
+      </c>
+      <c r="H143">
+        <v>0.06353766814984618</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D144">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E144">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F144">
+        <v>0.1484410435198049</v>
+      </c>
+      <c r="G144">
+        <v>0.02400138748365216</v>
+      </c>
+      <c r="H144">
+        <v>0.07549050905767944</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D145">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E145">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F145">
+        <v>0.2060912195271978</v>
+      </c>
+      <c r="G145">
+        <v>0.004912856793696921</v>
+      </c>
+      <c r="H145">
+        <v>0.05072885253233239</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0.55</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0.001418530201174281</v>
+      </c>
+      <c r="G146">
+        <v>0.5491445685287786</v>
+      </c>
+      <c r="H146">
+        <v>0.004359103984845391</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D147">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E147">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F147">
+        <v>0.1728028993966088</v>
+      </c>
+      <c r="G147">
+        <v>0.02177590407794507</v>
+      </c>
+      <c r="H147">
+        <v>0.06376987170374965</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D148">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E148">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F148">
+        <v>0.1468793627200324</v>
+      </c>
+      <c r="G148">
+        <v>0.02403062148390341</v>
+      </c>
+      <c r="H148">
+        <v>0.07610953870870651</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D149">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E149">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F149">
+        <v>0.2026488999803101</v>
+      </c>
+      <c r="G149">
+        <v>0.00497267264278147</v>
+      </c>
+      <c r="H149">
+        <v>0.0511270287634164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0.55</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0.001406651053118055</v>
+      </c>
+      <c r="G150">
+        <v>0.549154426142314</v>
+      </c>
+      <c r="H150">
+        <v>0.004269260068182407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>0.1752116169708469</v>
+      </c>
+      <c r="D151">
+        <v>0.02175019485110456</v>
+      </c>
+      <c r="E151">
+        <v>0.06352441088029026</v>
+      </c>
+      <c r="F151">
+        <v>0.1684639478807755</v>
+      </c>
+      <c r="G151">
+        <v>0.02171832370819468</v>
+      </c>
+      <c r="H151">
+        <v>0.06477846663066072</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152">
+        <v>0.1487891677472334</v>
+      </c>
+      <c r="D152">
+        <v>0.02405905332576792</v>
+      </c>
+      <c r="E152">
+        <v>0.07551192724148598</v>
+      </c>
+      <c r="F152">
+        <v>0.1477457345389953</v>
+      </c>
+      <c r="G152">
+        <v>0.02412566540398124</v>
+      </c>
+      <c r="H152">
+        <v>0.07534588938730437</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153">
+        <v>0.2070226333129929</v>
+      </c>
+      <c r="D153">
+        <v>0.004990949765398075</v>
+      </c>
+      <c r="E153">
+        <v>0.05084256526205149</v>
+      </c>
+      <c r="F153">
+        <v>0.199288830161437</v>
+      </c>
+      <c r="G153">
+        <v>0.004054247661456485</v>
+      </c>
+      <c r="H153">
+        <v>0.05233349728143885</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
